--- a/biology/Zoologie/Anopla/Anopla.xlsx
+++ b/biology/Zoologie/Anopla/Anopla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anopla est une classe de vers aquatiques de l'embranchement des Nemertea (vers pourvus d'un probiscis dévaginable). 
 </t>
@@ -511,9 +523,11 @@
           <t>Espèces notables</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plus longue espèce animale du monde est le némerte répondant au nom latin de Lineus longissimus, et dont la taille peut atteindre 55 mètres de long[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plus longue espèce animale du monde est le némerte répondant au nom latin de Lineus longissimus, et dont la taille peut atteindre 55 mètres de long.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Classe Anopla
 Ordre Heteronemertea (500 espèces, familles discutées : Cerebratulidae, Gorgonorhynchidae, Lineidae, Mixolineidae, Panorhynchidae, Polybrachiorhynchidae et Valenciniidae selon Ray Gibson)
@@ -579,7 +595,7 @@
 Hubrechtella (Bergendal, 1902)
 Famille Tubulanidae
 Callinera (Bergendal, 1900), Carinesta (Punnett, 1900), Carinina (Hubrecht, 1885), Carinomella, Tubulanus
-Selon World Register of Marine Species                               (11 janvier 2015)[2] :
+Selon World Register of Marine Species                               (11 janvier 2015) :
 famille Gorgonorhynchidae
 famille Lineidae
 famille Mixolineidae
